--- a/CodeSystem-readiness-assessment-concepts.xlsx
+++ b/CodeSystem-readiness-assessment-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-readiness-assessment-concepts.xlsx
+++ b/CodeSystem-readiness-assessment-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-readiness-assessment-concepts.xlsx
+++ b/CodeSystem-readiness-assessment-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,13 +141,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>readiness-assessent</t>
+    <t>readiness-assessment</t>
   </si>
   <si>
     <t>Readiness assessment</t>
   </si>
   <si>
-    <t>Used as a panel code for readiness scales</t>
+    <t>Panel code for readiness scales</t>
   </si>
   <si>
     <t>importance</t>

--- a/CodeSystem-readiness-assessment-concepts.xlsx
+++ b/CodeSystem-readiness-assessment-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
